--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -1083,7 +1083,7 @@
         <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>83</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="99">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -361,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -373,6 +379,7 @@
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -394,45 +401,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -454,765 +470,882 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -379,7 +379,7 @@
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="100">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Esito accertamento di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.6</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Esito accertamento di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.6</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -471,881 +474,881 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="102">
   <si>
     <t>Sezione</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -370,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -922,7 +928,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>38</v>
@@ -1014,7 +1020,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1129,7 +1135,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>38</v>
@@ -1192,19 +1198,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1215,16 +1221,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1238,7 +1244,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
@@ -1247,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1261,7 +1267,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -1270,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1284,16 +1290,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1307,16 +1313,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1330,16 +1336,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1348,6 +1354,29 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="110">
   <si>
     <t>Sezione</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -376,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1158,7 +1182,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>38</v>
@@ -1181,7 +1205,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>38</v>
@@ -1204,7 +1228,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>38</v>
@@ -1221,19 +1245,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1244,19 +1268,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1267,19 +1291,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1290,19 +1314,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1313,16 +1337,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1336,7 +1360,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1345,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1359,16 +1383,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1377,6 +1401,98 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="112">
   <si>
     <t>Sezione</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -400,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -768,7 +774,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
@@ -860,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>38</v>
@@ -975,7 +981,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>38</v>
@@ -1067,7 +1073,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1274,7 +1280,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>38</v>
@@ -1337,19 +1343,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1360,16 +1366,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1383,7 +1389,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1392,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1406,7 +1412,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1415,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1429,16 +1435,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1452,16 +1458,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1475,16 +1481,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1493,6 +1499,29 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="114">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -406,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1050,7 +1056,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1073,7 +1079,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1303,7 +1309,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>38</v>
@@ -1366,19 +1372,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1389,16 +1395,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1412,7 +1418,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1421,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1435,7 +1441,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1444,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1458,16 +1464,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1481,16 +1487,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1504,16 +1510,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1522,6 +1528,29 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -306,6 +306,81 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -412,17 +487,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.91015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1401,7 +1476,7 @@
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>100</v>
@@ -1413,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -1421,22 +1496,22 @@
         <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
@@ -1444,22 +1519,22 @@
         <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
@@ -1467,22 +1542,22 @@
         <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
@@ -1490,7 +1565,7 @@
         <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>37</v>
@@ -1499,13 +1574,13 @@
         <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
@@ -1513,22 +1588,22 @@
         <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49">
@@ -1551,6 +1626,282 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -487,14 +493,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1407,7 +1413,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>38</v>
@@ -1470,53 +1476,53 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>105</v>
@@ -1525,7 +1531,7 @@
         <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>106</v>
@@ -1534,12 +1540,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>107</v>
@@ -1548,7 +1554,7 @@
         <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>108</v>
@@ -1557,12 +1563,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>109</v>
@@ -1571,7 +1577,7 @@
         <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>110</v>
@@ -1580,12 +1586,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>111</v>
@@ -1594,44 +1600,44 @@
         <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1640,44 +1646,44 @@
         <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1686,7 +1692,7 @@
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1695,12 +1701,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>119</v>
@@ -1709,7 +1715,7 @@
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>120</v>
@@ -1718,12 +1724,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>121</v>
@@ -1732,7 +1738,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>122</v>
@@ -1741,44 +1747,44 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1792,7 +1798,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
@@ -1801,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -1815,7 +1821,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
@@ -1824,7 +1830,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>132</v>
@@ -1838,16 +1844,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>134</v>
@@ -1861,16 +1867,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>136</v>
@@ -1884,16 +1890,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>138</v>
@@ -1902,6 +1908,29 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,12 +288,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -493,14 +487,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1413,7 +1407,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>38</v>
@@ -1476,53 +1470,53 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>105</v>
@@ -1531,7 +1525,7 @@
         <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>106</v>
@@ -1540,12 +1534,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>107</v>
@@ -1554,7 +1548,7 @@
         <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>108</v>
@@ -1563,12 +1557,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>109</v>
@@ -1577,7 +1571,7 @@
         <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>110</v>
@@ -1586,12 +1580,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>111</v>
@@ -1600,44 +1594,44 @@
         <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1646,44 +1640,44 @@
         <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1692,7 +1686,7 @@
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1701,12 +1695,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>119</v>
@@ -1715,7 +1709,7 @@
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>120</v>
@@ -1724,12 +1718,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>121</v>
@@ -1738,7 +1732,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>122</v>
@@ -1747,44 +1741,44 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1798,7 +1792,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
@@ -1807,7 +1801,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -1821,7 +1815,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
@@ -1830,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>132</v>
@@ -1844,16 +1838,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>134</v>
@@ -1867,16 +1861,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>136</v>
@@ -1890,16 +1884,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>138</v>
@@ -1908,29 +1902,6 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -493,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -907,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
@@ -930,7 +942,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>38</v>
@@ -976,7 +988,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>38</v>
@@ -999,7 +1011,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>38</v>
@@ -1091,7 +1103,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>38</v>
@@ -1114,7 +1126,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>38</v>
@@ -1137,7 +1149,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1160,7 +1172,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1436,7 +1448,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>38</v>
@@ -1459,7 +1471,7 @@
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>38</v>
@@ -1499,76 +1511,76 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>109</v>
@@ -1577,7 +1589,7 @@
         <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>110</v>
@@ -1586,12 +1598,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>111</v>
@@ -1600,7 +1612,7 @@
         <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>112</v>
@@ -1609,12 +1621,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>113</v>
@@ -1623,113 +1635,113 @@
         <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>121</v>
@@ -1738,7 +1750,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>122</v>
@@ -1747,12 +1759,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>123</v>
@@ -1761,7 +1773,7 @@
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>124</v>
@@ -1770,67 +1782,67 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>132</v>
@@ -1844,7 +1856,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>133</v>
@@ -1853,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>134</v>
@@ -1867,16 +1879,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>136</v>
@@ -1890,7 +1902,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>137</v>
@@ -1899,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>138</v>
@@ -1913,7 +1925,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>139</v>
@@ -1922,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>140</v>
@@ -1931,6 +1943,52 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>18</v>
       </c>
     </row>
